--- a/formatos/formato-gastos-generales.xlsx
+++ b/formatos/formato-gastos-generales.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D63902-15C1-41F1-A65D-E965B058594F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos Generales" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -56,14 +57,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,13 +73,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,11 +93,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -383,33 +378,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
